--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Polymyositis.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Polymyositis.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is more common in CREST syndrome with Type 2 Achalasia due to esophageal motility issues.</t>
+          <t>Dysphagia for both solids and liquids is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Muscle weakness (proximal muscle weakness)</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a hallmark of Polymyositis and not a feature of CREST syndrome.</t>
+          <t>Proximal muscle weakness is a classic symptom of Polymyositis and not typical of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly, telangiectasia)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin manifestations are characteristic of CREST syndrome and less common in Polymyositis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and not typically seen in Polymyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Muscle pain</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fatigue is commonly reported in Polymyositis and less specific to CREST syndrome.</t>
+          <t>Muscle pain is commonly associated with Polymyositis and not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reflux symptoms are often reported in patients with Type 2 Achalasia, distinguishing it from Polymyositis.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome and not associated with Polymyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Difficulty climbing stairs or lifting objects</t>
+          <t>Difficulty climbing stairs</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This symptom is indicative of muscle involvement in Polymyositis, contrasting with CREST syndrome.</t>
+          <t>Difficulty climbing stairs due to muscle weakness is indicative of Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's is a classic feature of CREST syndrome and not typically seen in Polymyositis.</t>
+          <t>Telangiectasia is a specific feature of CREST syndrome and not seen in Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., creatine kinase)</t>
+          <t>Dysphagia primarily for solids</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes are indicative of muscle damage in Polymyositis, not seen in CREST syndrome.</t>
+          <t>Dysphagia primarily for solids can occur in Polymyositis due to esophageal muscle involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific finding in CREST syndrome and is not associated with Polymyositis.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and not typically present in Polymyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Respiratory symptoms (e.g., dyspnea due to muscle weakness)</t>
+          <t>Fatigue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Respiratory involvement due to muscle weakness is more common in Polymyositis than in CREST syndrome.</t>
+          <t>Fatigue is a common symptom in Polymyositis due to muscle inflammation and weakness.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of esophageal dilation or surgery</t>
+          <t>History of sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and Type 2 Achalasia often have a history of esophageal interventions due to dysphagia.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome and not typically seen in Polymyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of muscle weakness or atrophy</t>
+          <t>History of proximal muscle weakness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Muscle weakness is a hallmark of Polymyositis and is not a feature of CREST syndrome.</t>
+          <t>Proximal muscle weakness is a classic symptom of Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of scleroderma</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome is a subset of scleroderma, and a prior diagnosis supports the likelihood of CREST syndrome.</t>
+          <t>Esophageal dysmotility is common in CREST syndrome with Type 2 Achalasia due to esophageal involvement.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use of corticosteroids</t>
+          <t>History of elevated creatine kinase (CK) levels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Corticosteroids are commonly used in the treatment of Polymyositis, whereas they are not typically used for CREST syndrome.</t>
+          <t>Elevated CK levels are indicative of muscle inflammation in Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of proton pump inhibitors</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Type 2 Achalasia often require proton pump inhibitors for gastroesophageal reflux, which is less common in Polymyositis.</t>
+          <t>Calcinosis is a specific feature of CREST syndrome and not associated with Polymyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Previous diagnosis of dermatomyositis</t>
+          <t>History of interstitial lung disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dermatomyositis is closely related to Polymyositis and supports the diagnosis over CREST syndrome.</t>
+          <t>Interstitial lung disease can occur in Polymyositis and is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of skin changes consistent with sclerodactyly</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and are not typically seen in Polymyositis.</t>
+          <t>Raynaud's phenomenon is frequently associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of elevated muscle enzymes (e.g., CK)</t>
+          <t>Current use of immunosuppressive therapy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels are indicative of muscle inflammation seen in Polymyositis.</t>
+          <t>Immunosuppressive therapy is commonly used in Polymyositis to manage muscle inflammation.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous diagnosis of pulmonary hypertension</t>
+          <t>Current use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently associated with CREST syndrome than with Polymyositis.</t>
+          <t>Calcium channel blockers are often used to manage Raynaud's phenomenon in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Previous diagnosis of interstitial lung disease</t>
+          <t>History of dysphagia due to muscle weakness</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is more commonly associated with Polymyositis than with CREST syndrome.</t>
+          <t>Dysphagia in Polymyositis is due to muscle weakness, differing from esophageal dysmotility in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with a higher prevalence of autoimmune conditions in family members.</t>
+          <t>CREST syndrome is associated with a family history of autoimmune diseases, which can include scleroderma-related conditions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,95 +779,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Polymyositis can have a genetic component, with muscle disorders running in families.</t>
+          <t>Polymyositis is a muscle disorder, and a family history of similar conditions may increase risk.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of esophageal symptoms</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by esophageal dysmotility, which is more common in CREST syndrome.</t>
+          <t>Scleroderma, a component of CREST syndrome, may have a genetic predisposition, making family history relevant.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of physical inactivity</t>
+          <t>Family history of inflammatory myopathies</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle can contribute to muscle weakness, which is a hallmark of Polymyositis.</t>
+          <t>Polymyositis is an inflammatory myopathy, and a family history of such conditions is relevant.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to environmental toxins</t>
+          <t>Family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain environmental exposures may increase the risk of developing CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a common feature in CREST syndrome and may have a familial component.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of autoimmune myositis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Smoking is a known risk factor for various autoimmune diseases, including Polymyositis.</t>
+          <t>Polymyositis is an autoimmune myositis, and a family history of autoimmune conditions affecting muscles is significant.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of scleroderma</t>
+          <t>Family history of esophageal disorders</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engagement in activities that may lead to scleroderma can indicate a predisposition to CREST syndrome.</t>
+          <t>Type 2 Achalasia, part of CREST syndrome, may be linked to familial esophageal motility disorders.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Participation in high-risk activities for muscle injury</t>
+          <t>Family history of dermatomyositis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Engagement in activities that lead to muscle injury can be more relevant to Polymyositis.</t>
+          <t>Dermatomyositis is related to polymyositis, and a family history of this condition may suggest a predisposition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon in family</t>
+          <t>Family history of calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's is a common feature of CREST syndrome and may be hereditary.</t>
+          <t>Calcinosis is a feature of CREST syndrome and may have a genetic predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of viral infections in family</t>
+          <t>Family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Certain viral infections have been linked to the onset of Polymyositis.</t>
+          <t>Polymyositis can be associated with other connective tissue diseases, and a family history may indicate a genetic link.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not present in Polymyositis.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome and not typically seen in Polymyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Muscle weakness (proximal)</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a defining feature of Polymyositis and not seen in CREST syndrome.</t>
+          <t>Proximal muscle weakness is a classic sign of Polymyositis and not typical in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of Polymyositis.</t>
+          <t>Telangiectasia is common in CREST syndrome and rare in Polymyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., CK)</t>
+          <t>Muscle tenderness</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels are indicative of muscle damage in Polymyositis.</t>
+          <t>Muscle tenderness is more common in Polymyositis due to muscle inflammation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia due to esophageal motility issues is characteristic of Type 2 Achalasia in CREST syndrome.</t>
+          <t>Calcinosis is a specific finding in CREST syndrome and not associated with Polymyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Muscle tenderness</t>
+          <t>Heliotrope rash</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muscle tenderness is commonly reported in Polymyositis but not in CREST syndrome.</t>
+          <t>Heliotrope rash is specific to dermatomyositis, a related condition, and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently seen in CREST syndrome than in Polymyositis.</t>
+          <t>Raynaud's phenomenon is frequently observed in CREST syndrome but not in Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Dysphagia (due to muscle involvement)</t>
+          <t>Gottron's papules</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dysphagia in Polymyositis is due to muscle involvement rather than esophageal motility issues.</t>
+          <t>Gottron's papules are indicative of dermatomyositis, which is closely related to Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome and is not associated with Polymyositis.</t>
+          <t>Digital ulcers are more indicative of CREST syndrome due to vascular involvement.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Skin rash (heliotrope rash)</t>
+          <t>Elevated muscle enzymes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heliotrope rash is a specific finding in Polymyositis and not present in CREST syndrome.</t>
+          <t>Elevated muscle enzymes are indicative of muscle inflammation in Polymyositis.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing high lower esophageal sphincter pressure with incomplete relaxation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often seen in CREST syndrome.</t>
+          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevated CK levels are indicative of muscle inflammation and are commonly seen in Polymyositis.</t>
+          <t>Elevated CK levels are indicative of muscle inflammation, which is a hallmark of Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with stasis</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia and supports the diagnosis of CREST syndrome.</t>
+          <t>Anticentromere antibodies are commonly found in CREST syndrome and are not typical in Polymyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Muscle biopsy showing inflammatory infiltrate</t>
+          <t>Muscle biopsy showing inflammatory infiltrates</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A muscle biopsy revealing inflammatory changes is a definitive finding for Polymyositis.</t>
+          <t>Muscle biopsy with inflammatory infiltrates is diagnostic for Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibodies</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are commonly associated with CREST syndrome and help differentiate it from Polymyositis.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positive anti-Jo-1 antibodies</t>
+          <t>Electromyography (EMG) showing myopathic changes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These antibodies are associated with Polymyositis and help distinguish it from CREST syndrome.</t>
+          <t>EMG findings of myopathic changes are typical in Polymyositis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest X-ray showing dilated esophagus</t>
+          <t>Pulmonary function tests showing restrictive pattern due to pulmonary fibrosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A dilated esophagus on imaging is a common finding in patients with achalasia, supporting CREST syndrome.</t>
+          <t>Pulmonary fibrosis is more commonly associated with CREST syndrome than with Polymyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MRI showing muscle edema</t>
+          <t>Anti-Jo-1 antibodies</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MRI findings of muscle edema are consistent with Polymyositis and not typically seen in CREST syndrome.</t>
+          <t>Anti-Jo-1 antibodies are associated with Polymyositis and not with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings of esophageal dilation</t>
+          <t>Positive ANA (antinuclear antibody) with a centromere pattern</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Endoscopy may reveal esophageal dilation, which is consistent with Type 2 Achalasia in CREST syndrome.</t>
+          <t>A centromere pattern on ANA is more specific to CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Electromyography (EMG) showing myopathic changes</t>
+          <t>MRI showing muscle edema</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EMG findings of myopathy are characteristic of Polymyositis and help differentiate it from CREST syndrome.</t>
+          <t>MRI findings of muscle edema are indicative of active muscle inflammation in Polymyositis.</t>
         </is>
       </c>
     </row>
